--- a/modifiedSources/m_state-geocodes-v2018.xlsx
+++ b/modifiedSources/m_state-geocodes-v2018.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/gitHubRepos/geoLookups/modifiedSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6255CD-A741-0947-B6DF-9B02C464C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FBF12-B0C1-794C-BFE3-1B142545176F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1700" windowWidth="37520" windowHeight="20260" xr2:uid="{F6A531B1-7DC8-B647-BA03-60AFB8AE8BE0}"/>
+    <workbookView xWindow="1380" yWindow="9140" windowWidth="33600" windowHeight="20260" xr2:uid="{F6A531B1-7DC8-B647-BA03-60AFB8AE8BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4505AD-1209-774C-AC52-328F96E4A5E2}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,7 +927,7 @@
     <col min="1" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
